--- a/simulation_data/iterative_algorithm/i_error_level_5_percent_water_1.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_5_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.22629534674428</v>
+        <v>90.68579714094132</v>
       </c>
       <c r="D2" t="n">
-        <v>5.792929299945146</v>
+        <v>5.024087254959437</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.45433247938654</v>
+        <v>89.45643462734917</v>
       </c>
       <c r="D3" t="n">
-        <v>5.790624380917628</v>
+        <v>5.454633975741605</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.79966924538564</v>
+        <v>87.90255368669729</v>
       </c>
       <c r="D4" t="n">
-        <v>5.27718471968335</v>
+        <v>5.128472443925611</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.52465203778078</v>
+        <v>86.87596235058001</v>
       </c>
       <c r="D5" t="n">
-        <v>4.438223950662912</v>
+        <v>5.190919390447398</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>84.90366389970094</v>
+        <v>85.73948023525116</v>
       </c>
       <c r="D6" t="n">
-        <v>5.100764769538425</v>
+        <v>5.22758722613043</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.78202771931184</v>
+        <v>84.53059901732871</v>
       </c>
       <c r="D7" t="n">
-        <v>5.438189501965986</v>
+        <v>5.550406607233201</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.7832811433188</v>
+        <v>84.37198849482211</v>
       </c>
       <c r="D8" t="n">
-        <v>5.027220521896364</v>
+        <v>4.592938588085548</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.53912194071501</v>
+        <v>82.58441541473623</v>
       </c>
       <c r="D9" t="n">
-        <v>5.325902711035786</v>
+        <v>5.075275243030255</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.05714849871349</v>
+        <v>81.09111998523721</v>
       </c>
       <c r="D10" t="n">
-        <v>5.420702702644544</v>
+        <v>4.901548048293333</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>82.19838637186147</v>
+        <v>80.04701540956768</v>
       </c>
       <c r="D11" t="n">
-        <v>5.242155320671141</v>
+        <v>5.240216290790907</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.20636364265857</v>
+        <v>79.89354554254068</v>
       </c>
       <c r="D12" t="n">
-        <v>5.603814747006543</v>
+        <v>5.033961612408854</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.93460328656022</v>
+        <v>79.44945415713683</v>
       </c>
       <c r="D13" t="n">
-        <v>5.47572097467738</v>
+        <v>5.289113295032255</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.90985314033787</v>
+        <v>78.78947700670018</v>
       </c>
       <c r="D14" t="n">
-        <v>5.482698639750573</v>
+        <v>5.412068937348431</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.21541381345546</v>
+        <v>77.07606988601454</v>
       </c>
       <c r="D15" t="n">
-        <v>4.584616960124573</v>
+        <v>4.87952656889895</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.96956803680705</v>
+        <v>76.22359916478317</v>
       </c>
       <c r="D16" t="n">
-        <v>5.659391565175645</v>
+        <v>5.669674470264552</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.0883062254634</v>
+        <v>75.04361314417226</v>
       </c>
       <c r="D17" t="n">
-        <v>5.20424468116446</v>
+        <v>5.383415834997657</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.65568131469874</v>
+        <v>74.35194264249988</v>
       </c>
       <c r="D18" t="n">
-        <v>4.967250169169999</v>
+        <v>5.220724766972436</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.25693120642117</v>
+        <v>73.01607517744046</v>
       </c>
       <c r="D19" t="n">
-        <v>5.616043484412348</v>
+        <v>5.389893716836665</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.57554143400685</v>
+        <v>71.45923778393654</v>
       </c>
       <c r="D20" t="n">
-        <v>5.506248025542707</v>
+        <v>5.508685388092047</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.15833648396969</v>
+        <v>70.68252506406921</v>
       </c>
       <c r="D21" t="n">
-        <v>5.407724072823285</v>
+        <v>5.056002347056302</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.39577370311123</v>
+        <v>70.12233143299608</v>
       </c>
       <c r="D22" t="n">
-        <v>5.547217586928878</v>
+        <v>5.533080592716837</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.61268678286686</v>
+        <v>68.64698062032527</v>
       </c>
       <c r="D23" t="n">
-        <v>6.17649929035553</v>
+        <v>5.700929106952149</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.26701845362169</v>
+        <v>68.13083817403177</v>
       </c>
       <c r="D24" t="n">
-        <v>5.041742006793874</v>
+        <v>5.067597427050264</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.40786780068399</v>
+        <v>65.7121169491793</v>
       </c>
       <c r="D25" t="n">
-        <v>5.683164161594608</v>
+        <v>4.570814350718746</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.57649210513186</v>
+        <v>66.53248725432378</v>
       </c>
       <c r="D26" t="n">
-        <v>5.509203338453383</v>
+        <v>5.385523736019452</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.18168090312963</v>
+        <v>64.8465002020568</v>
       </c>
       <c r="D27" t="n">
-        <v>5.179660643728289</v>
+        <v>5.378826452885972</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.81484837583376</v>
+        <v>63.4063019280183</v>
       </c>
       <c r="D28" t="n">
-        <v>5.753513617427094</v>
+        <v>5.969298991616821</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.68551314255137</v>
+        <v>63.45067925163173</v>
       </c>
       <c r="D29" t="n">
-        <v>5.7797469688537</v>
+        <v>5.756523959612436</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.23811878970794</v>
+        <v>61.24489672005738</v>
       </c>
       <c r="D30" t="n">
-        <v>5.9691879750446</v>
+        <v>5.956444342342275</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.43952666801082</v>
+        <v>61.13025853970652</v>
       </c>
       <c r="D31" t="n">
-        <v>5.367035804246166</v>
+        <v>4.939296405029634</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.65697947873568</v>
+        <v>59.93302464340722</v>
       </c>
       <c r="D32" t="n">
-        <v>5.489519387569825</v>
+        <v>4.881191879989009</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.18704841082045</v>
+        <v>59.57596298251983</v>
       </c>
       <c r="D33" t="n">
-        <v>4.732689168852646</v>
+        <v>5.587908736597697</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.51836593560087</v>
+        <v>58.59658191317678</v>
       </c>
       <c r="D34" t="n">
-        <v>5.443047726759832</v>
+        <v>5.588487246585513</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.49513229390784</v>
+        <v>56.43587502553029</v>
       </c>
       <c r="D35" t="n">
-        <v>5.891815832732653</v>
+        <v>5.703661127221677</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.08946541840805</v>
+        <v>55.36911427660355</v>
       </c>
       <c r="D36" t="n">
-        <v>5.840462452360689</v>
+        <v>5.789923592440501</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.23575324669166</v>
+        <v>53.77816777521242</v>
       </c>
       <c r="D37" t="n">
-        <v>6.278716659211017</v>
+        <v>5.562300088865362</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.38239972436985</v>
+        <v>54.21530277134521</v>
       </c>
       <c r="D38" t="n">
-        <v>6.38454287940757</v>
+        <v>5.224876279418436</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.67963236890209</v>
+        <v>52.709536578067</v>
       </c>
       <c r="D39" t="n">
-        <v>5.135023382307357</v>
+        <v>5.113289664238631</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.89245074640851</v>
+        <v>52.14371868738817</v>
       </c>
       <c r="D40" t="n">
-        <v>5.195715313253732</v>
+        <v>4.925908549403698</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.93577973250597</v>
+        <v>51.12688905782098</v>
       </c>
       <c r="D41" t="n">
-        <v>6.015455256722479</v>
+        <v>5.581133903201456</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.74611007284827</v>
+        <v>49.96737368769426</v>
       </c>
       <c r="D42" t="n">
-        <v>5.929742309678995</v>
+        <v>5.218873508793729</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.65324109409838</v>
+        <v>49.66842527542384</v>
       </c>
       <c r="D43" t="n">
-        <v>5.408490369525468</v>
+        <v>5.424345528919079</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.30857639870293</v>
+        <v>47.90633083273288</v>
       </c>
       <c r="D44" t="n">
-        <v>5.83691015440018</v>
+        <v>5.812263568488354</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.57097610065075</v>
+        <v>45.89556604785185</v>
       </c>
       <c r="D45" t="n">
-        <v>5.302098417111667</v>
+        <v>5.348249992338963</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.96966879318776</v>
+        <v>46.7129071628534</v>
       </c>
       <c r="D46" t="n">
-        <v>5.256660083987247</v>
+        <v>6.20114869517824</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.80640777038165</v>
+        <v>45.15166130528206</v>
       </c>
       <c r="D47" t="n">
-        <v>6.382373910851021</v>
+        <v>5.661298254221141</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.37458124480294</v>
+        <v>44.6598240768808</v>
       </c>
       <c r="D48" t="n">
-        <v>5.025359842701622</v>
+        <v>5.297079002845774</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.65197884539923</v>
+        <v>42.83025790713153</v>
       </c>
       <c r="D49" t="n">
-        <v>6.243362924025931</v>
+        <v>5.991860930905091</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.44249909220103</v>
+        <v>41.3936497765046</v>
       </c>
       <c r="D50" t="n">
-        <v>5.49332289782188</v>
+        <v>5.524094149554938</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.54673246191101</v>
+        <v>41.47399684731946</v>
       </c>
       <c r="D51" t="n">
-        <v>5.84227412495447</v>
+        <v>5.579552786862419</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.73649498333512</v>
+        <v>40.30444297803459</v>
       </c>
       <c r="D52" t="n">
-        <v>4.973322620879133</v>
+        <v>4.939437298190924</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.78839031884534</v>
+        <v>38.66947181768663</v>
       </c>
       <c r="D53" t="n">
-        <v>5.565003331485578</v>
+        <v>5.991551742943851</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.59868792295596</v>
+        <v>37.58964779792777</v>
       </c>
       <c r="D54" t="n">
-        <v>5.017355537786105</v>
+        <v>4.983955721147694</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.00509626335867</v>
+        <v>37.91347228822964</v>
       </c>
       <c r="D55" t="n">
-        <v>5.757889839316638</v>
+        <v>5.482636664136739</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.67000035050724</v>
+        <v>36.29319637830405</v>
       </c>
       <c r="D56" t="n">
-        <v>6.433096598765711</v>
+        <v>6.206382493800934</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.37338956847086</v>
+        <v>34.90965001329748</v>
       </c>
       <c r="D57" t="n">
-        <v>6.073759856296476</v>
+        <v>5.737079827403639</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.00285857479789</v>
+        <v>33.37017220951387</v>
       </c>
       <c r="D58" t="n">
-        <v>5.232967266396283</v>
+        <v>4.879388199785856</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.06063872464805</v>
+        <v>32.43791371549486</v>
       </c>
       <c r="D59" t="n">
-        <v>6.011722960120636</v>
+        <v>5.994404933308346</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.67358287111219</v>
+        <v>31.10000147113189</v>
       </c>
       <c r="D60" t="n">
-        <v>5.245216827368749</v>
+        <v>5.506329742757218</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.1205984357466</v>
+        <v>31.87027390997979</v>
       </c>
       <c r="D61" t="n">
-        <v>5.597359664590785</v>
+        <v>5.298896306237327</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.09639907027847</v>
+        <v>30.12746481933789</v>
       </c>
       <c r="D62" t="n">
-        <v>5.516404184592961</v>
+        <v>5.523936758799376</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.06032532182518</v>
+        <v>28.04043669390634</v>
       </c>
       <c r="D63" t="n">
-        <v>4.854985774629294</v>
+        <v>5.641873379508279</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.67043467411221</v>
+        <v>27.48650303378771</v>
       </c>
       <c r="D64" t="n">
-        <v>5.606524863041876</v>
+        <v>5.619848793964758</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.53588352864208</v>
+        <v>27.05204090051873</v>
       </c>
       <c r="D65" t="n">
-        <v>5.479696354738898</v>
+        <v>5.014969578205499</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.47259687384331</v>
+        <v>26.66794394272876</v>
       </c>
       <c r="D66" t="n">
-        <v>6.150386292788372</v>
+        <v>5.426430007439971</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.74259903682001</v>
+        <v>25.06105343585936</v>
       </c>
       <c r="D67" t="n">
-        <v>4.527880236646102</v>
+        <v>6.190645109704985</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.40286713504576</v>
+        <v>23.4997891381865</v>
       </c>
       <c r="D68" t="n">
-        <v>5.706945908622268</v>
+        <v>5.496550742070443</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.10730385301075</v>
+        <v>23.03013372534268</v>
       </c>
       <c r="D69" t="n">
-        <v>5.101253555110148</v>
+        <v>5.540911463154078</v>
       </c>
     </row>
   </sheetData>
